--- a/data/trans_orig/P78C_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P78C_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F45D5520-A428-47C7-88CA-BD2C3A4F3114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4038914D-BA51-4854-AFD2-039FDE815072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{23B7FD81-DD40-497F-83A4-BEBEDAEE029E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E7BD4558-CEAA-4301-A2CB-7BFBC8CB8EE2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -1035,7 +1035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8F761A-6264-41D5-BF6E-016F2387181A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BEB3154-37E9-44C2-9346-838493A57640}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2167,7 +2167,7 @@
         <v>6511</v>
       </c>
       <c r="N23" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>17</v>
@@ -2218,7 +2218,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -2254,7 +2254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701D788A-CF42-427A-A0F9-815A17284444}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2DAB41-B9A9-405F-B4DC-6C76410D2A98}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3473,7 +3473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22D7972-852D-45B3-883C-CBD50D14F90F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD19FE54-B830-456E-8C71-B603B5FD7155}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4140,7 +4140,7 @@
         <v>1184</v>
       </c>
       <c r="N14" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
@@ -4191,7 +4191,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -4692,7 +4692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A519088-D217-4FC4-964D-03D0D33FB7AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71AC61B-C9F5-44A4-B9C9-8C7A982909E1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P78C_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P78C_R-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4038914D-BA51-4854-AFD2-039FDE815072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56B08C6A-9FE5-4969-A5BA-825C602139FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E7BD4558-CEAA-4301-A2CB-7BFBC8CB8EE2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BC54F5A4-535A-4EF9-AB74-4189D93AA67E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -260,7 +260,7 @@
     <t>99,72%</t>
   </si>
   <si>
-    <t>Población con retrasos en pagos no resueltos en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Población con retrasos en pagos no resueltos en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>0,33%</t>
@@ -293,285 +293,279 @@
     <t>2,38%</t>
   </si>
   <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
   </si>
   <si>
     <t>6,13%</t>
   </si>
   <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
   </si>
   <si>
     <t>4,21%</t>
   </si>
   <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
   </si>
   <si>
     <t>97,62%</t>
   </si>
   <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
   </si>
   <si>
     <t>93,87%</t>
   </si>
   <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
   </si>
   <si>
     <t>95,79%</t>
   </si>
   <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
   </si>
   <si>
     <t>3,34%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
   </si>
   <si>
     <t>1,81%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
   </si>
   <si>
     <t>2,52%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
   </si>
   <si>
     <t>96,66%</t>
   </si>
   <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
   </si>
   <si>
     <t>98,19%</t>
   </si>
   <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
   </si>
   <si>
     <t>97,48%</t>
   </si>
   <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
   </si>
   <si>
     <t>2,9%</t>
   </si>
   <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
     <t>1,65%</t>
   </si>
   <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
   </si>
   <si>
     <t>98,35%</t>
   </si>
   <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
     <t>99,42%</t>
   </si>
   <si>
@@ -587,40 +581,46 @@
     <t>2,19%</t>
   </si>
   <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
+    <t>2,64%</t>
+  </si>
+  <si>
     <t>2,13%</t>
   </si>
   <si>
     <t>1,75%</t>
   </si>
   <si>
-    <t>2,55%</t>
+    <t>2,54%</t>
   </si>
   <si>
     <t>97,81%</t>
   </si>
   <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
   </si>
   <si>
     <t>97,92%</t>
   </si>
   <si>
+    <t>97,36%</t>
+  </si>
+  <si>
     <t>97,87%</t>
   </si>
   <si>
-    <t>97,45%</t>
+    <t>97,46%</t>
   </si>
   <si>
     <t>98,25%</t>
@@ -1035,7 +1035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BEB3154-37E9-44C2-9346-838493A57640}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E1C920-B1BD-4632-8920-551FE4C377B3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2137,7 +2137,7 @@
         <v>3214</v>
       </c>
       <c r="D23" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
@@ -2188,7 +2188,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>19</v>
@@ -2254,7 +2254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2DAB41-B9A9-405F-B4DC-6C76410D2A98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80460018-43AA-4F0E-919D-7D27A1390300}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3473,7 +3473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD19FE54-B830-456E-8C71-B603B5FD7155}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E49D0C9-3EEA-46F3-8F84-313A19CE7B64}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4140,7 +4140,7 @@
         <v>1184</v>
       </c>
       <c r="N14" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
@@ -4191,7 +4191,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -4692,7 +4692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71AC61B-C9F5-44A4-B9C9-8C7A982909E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0E155C-C6FF-4D61-AC5A-E30DB51D5FD0}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5144,10 +5144,10 @@
         <v>122</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M10" s="7">
         <v>41</v>
@@ -5195,10 +5195,10 @@
         <v>130</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M11" s="7">
         <v>1343</v>
@@ -5296,13 +5296,13 @@
         <v>12028</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -5311,13 +5311,13 @@
         <v>27263</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5332,13 +5332,13 @@
         <v>702812</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H14" s="7">
         <v>1115</v>
@@ -5347,13 +5347,13 @@
         <v>730005</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M14" s="7">
         <v>1760</v>
@@ -5362,13 +5362,13 @@
         <v>1432817</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5436,13 +5436,13 @@
         <v>13425</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -5451,13 +5451,13 @@
         <v>13958</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -5466,13 +5466,13 @@
         <v>27384</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5487,13 +5487,13 @@
         <v>581305</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H17" s="7">
         <v>971</v>
@@ -5502,13 +5502,13 @@
         <v>574812</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M17" s="7">
         <v>1612</v>
@@ -5517,13 +5517,13 @@
         <v>1156116</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5591,13 +5591,13 @@
         <v>5814</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -5606,13 +5606,13 @@
         <v>5891</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M19" s="7">
         <v>20</v>
@@ -5621,13 +5621,13 @@
         <v>11705</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5642,13 +5642,13 @@
         <v>687339</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="H20" s="7">
         <v>1683</v>
@@ -5657,13 +5657,13 @@
         <v>1013153</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="M20" s="7">
         <v>2697</v>
@@ -5672,13 +5672,13 @@
         <v>1700492</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5746,13 +5746,13 @@
         <v>73167</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H22" s="7">
         <v>96</v>
@@ -5761,13 +5761,13 @@
         <v>78608</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
       <c r="M22" s="7">
         <v>164</v>
@@ -5776,13 +5776,13 @@
         <v>151775</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5797,13 +5797,13 @@
         <v>3267279</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H23" s="7">
         <v>5223</v>
@@ -5812,13 +5812,13 @@
         <v>3709578</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>148</v>
-      </c>
       <c r="L23" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M23" s="7">
         <v>8499</v>

--- a/data/trans_orig/P78C_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P78C_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56B08C6A-9FE5-4969-A5BA-825C602139FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2AC9BAF-238B-41A0-AEB9-A6D57592B213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BC54F5A4-535A-4EF9-AB74-4189D93AA67E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D3D31659-F46C-4F73-861A-985DC6082901}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="213">
   <si>
     <t>Población con retrasos en pagos no resueltos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -71,6 +71,24 @@
     <t>16/24</t>
   </si>
   <si>
+    <t>No recogida en edición</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
     <t>Sí</t>
   </si>
   <si>
@@ -92,24 +110,18 @@
     <t>No</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
     <t>25/34</t>
   </si>
   <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
     <t>0,27%</t>
   </si>
   <si>
@@ -119,42 +131,42 @@
     <t>0,15%</t>
   </si>
   <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
     <t>35/44</t>
   </si>
   <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
     <t>0,31%</t>
   </si>
   <si>
     <t>0,29%</t>
   </si>
   <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
     <t>45/54</t>
   </si>
   <si>
+    <t>99,6%</t>
+  </si>
+  <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>99,6%</t>
-  </si>
-  <si>
     <t>55/64</t>
   </si>
   <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
     <t>0,49%</t>
   </si>
   <si>
@@ -164,28 +176,25 @@
     <t>0,24%</t>
   </si>
   <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
     <t>65 y más</t>
   </si>
   <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
     <t>0,37%</t>
   </si>
   <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
   </si>
   <si>
     <t>0,06%</t>
@@ -194,18 +203,21 @@
     <t>0,03%</t>
   </si>
   <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
-  </si>
-  <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
     <t>Población con retrasos en pagos no resueltos en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
     <t>0,43%</t>
   </si>
   <si>
@@ -215,19 +227,19 @@
     <t>0,22%</t>
   </si>
   <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
+    <t>99,66%</t>
   </si>
   <si>
     <t>0,34%</t>
   </si>
   <si>
-    <t>99,66%</t>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
   </si>
   <si>
     <t>0,35%</t>
@@ -239,391 +251,433 @@
     <t>0,18%</t>
   </si>
   <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
+    <t>99,53%</t>
   </si>
   <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>99,53%</t>
+    <t>99,72%</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>99,72%</t>
-  </si>
-  <si>
     <t>Población con retrasos en pagos no resueltos en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
     <t>0,33%</t>
   </si>
   <si>
     <t>0,17%</t>
   </si>
   <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
+    <t>99,7%</t>
   </si>
   <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>99,7%</t>
+    <t>99,56%</t>
   </si>
   <si>
     <t>0,44%</t>
   </si>
   <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>Población con retrasos en pagos no resueltos en 2023 (Tasa respuesta: 99,08%)</t>
-  </si>
-  <si>
-    <t>2,38%</t>
+    <t>Población con retrasos en pagos no resueltos en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
   </si>
   <si>
     <t>0,57%</t>
   </si>
   <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
   </si>
   <si>
     <t>99,43%</t>
   </si>
   <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
   </si>
   <si>
     <t>1,62%</t>
   </si>
   <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
   </si>
   <si>
     <t>98,38%</t>
   </si>
   <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
   </si>
 </sst>
 </file>
@@ -1035,8 +1089,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E1C920-B1BD-4632-8920-551FE4C377B3}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EDA1BB0-C5D7-4749-9F9A-1EAF9057EC15}">
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1153,10 +1207,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>499</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>494064</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1168,34 +1222,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>489</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>467489</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>988</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>961553</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1204,10 +1258,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>499</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>494064</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1219,144 +1273,144 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>489</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>467489</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M5" s="7">
-        <v>988</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>961553</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C6" s="7">
-        <v>499</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>494064</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7">
+        <v>499</v>
+      </c>
+      <c r="D7" s="7">
+        <v>494064</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
         <v>489</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I7" s="7">
         <v>467489</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="7">
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
         <v>988</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N7" s="7">
         <v>961553</v>
       </c>
-      <c r="O6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="O7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>703</v>
@@ -1365,13 +1419,13 @@
         <v>735489</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H8" s="7">
         <v>591</v>
@@ -1380,13 +1434,13 @@
         <v>625494</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M8" s="7">
         <v>1294</v>
@@ -1395,174 +1449,174 @@
         <v>1360982</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>703</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>735489</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H9" s="7">
-        <v>591</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>625494</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>1294</v>
+        <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>1360982</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>613</v>
+        <v>703</v>
       </c>
       <c r="D11" s="7">
-        <v>638668</v>
+        <v>735489</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>658</v>
+        <v>591</v>
       </c>
       <c r="I11" s="7">
-        <v>689744</v>
+        <v>625494</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>1271</v>
+        <v>1294</v>
       </c>
       <c r="N11" s="7">
-        <v>1328412</v>
+        <v>1360982</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="B12" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C12" s="7">
         <v>613</v>
@@ -1571,13 +1625,13 @@
         <v>638668</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
         <v>658</v>
@@ -1586,13 +1640,13 @@
         <v>689744</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>1271</v>
@@ -1601,52 +1655,50 @@
         <v>1328412</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M13" s="7">
         <v>0</v>
       </c>
@@ -1654,40 +1706,40 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7">
-        <v>484</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>519147</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H14" s="7">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>515642</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
@@ -1696,22 +1748,22 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="M14" s="7">
-        <v>986</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>1034789</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1720,78 +1772,78 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>484</v>
+        <v>613</v>
       </c>
       <c r="D15" s="7">
-        <v>519147</v>
+        <v>638668</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>502</v>
+        <v>658</v>
       </c>
       <c r="I15" s="7">
-        <v>515642</v>
+        <v>689744</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>986</v>
+        <v>1271</v>
       </c>
       <c r="N15" s="7">
-        <v>1034789</v>
+        <v>1328412</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>484</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>519147</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>515642</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
@@ -1800,22 +1852,22 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>986</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>1034789</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1824,263 +1876,261 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>392</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>386710</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="H17" s="7">
-        <v>396</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>403986</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>788</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>790696</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C18" s="7">
-        <v>392</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>386710</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="H18" s="7">
-        <v>396</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>403986</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>484</v>
+      </c>
+      <c r="D19" s="7">
+        <v>519147</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7">
+        <v>502</v>
+      </c>
+      <c r="I19" s="7">
+        <v>515642</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="7">
+        <v>986</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1034789</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
+        <v>392</v>
+      </c>
+      <c r="D20" s="7">
+        <v>386710</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="7">
+        <v>396</v>
+      </c>
+      <c r="I20" s="7">
+        <v>403986</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M20" s="7">
         <v>788</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N20" s="7">
         <v>790696</v>
       </c>
-      <c r="O18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="O20" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>523</v>
-      </c>
-      <c r="D20" s="7">
-        <v>502466</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <v>661</v>
-      </c>
-      <c r="I20" s="7">
-        <v>676842</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1184</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1179308</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="P20" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>0</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>0</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>0</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -2089,13 +2139,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2104,13 +2154,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2119,143 +2169,504 @@
         <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
+        <v>392</v>
+      </c>
+      <c r="D23" s="7">
+        <v>386710</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="7">
+        <v>396</v>
+      </c>
+      <c r="I23" s="7">
+        <v>403986</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23" s="7">
+        <v>788</v>
+      </c>
+      <c r="N23" s="7">
+        <v>790696</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7">
+        <v>523</v>
+      </c>
+      <c r="D24" s="7">
+        <v>502466</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="7">
+        <v>661</v>
+      </c>
+      <c r="I24" s="7">
+        <v>676842</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1184</v>
+      </c>
+      <c r="N24" s="7">
+        <v>1179308</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>523</v>
+      </c>
+      <c r="D27" s="7">
+        <v>502466</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="7">
+        <v>661</v>
+      </c>
+      <c r="I27" s="7">
+        <v>676842</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="7">
+        <v>1184</v>
+      </c>
+      <c r="N27" s="7">
+        <v>1179308</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
         <v>3214</v>
       </c>
-      <c r="D23" s="7">
-        <v>3276543</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="D28" s="7">
+        <v>3276544</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="7">
+        <v>3297</v>
+      </c>
+      <c r="I28" s="7">
+        <v>3379198</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M28" s="7">
+        <v>6511</v>
+      </c>
+      <c r="N28" s="7">
+        <v>6655740</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="7">
+      <c r="Q28" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M30" s="7">
+        <v>0</v>
+      </c>
+      <c r="N30" s="7">
+        <v>0</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="7">
+        <v>3214</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3276544</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="7">
         <v>3297</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I31" s="7">
         <v>3379198</v>
       </c>
-      <c r="J23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M23" s="7">
+      <c r="J31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="7">
         <v>6511</v>
       </c>
-      <c r="N23" s="7">
-        <v>6655741</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D24" s="7">
-        <v>3276543</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N24" s="7">
-        <v>6655741</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>53</v>
+      <c r="N31" s="7">
+        <v>6655740</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80460018-43AA-4F0E-919D-7D27A1390300}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FFE4BC-E11D-4043-BDC5-3F317BDD29A1}">
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2271,7 +2682,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2372,49 +2783,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>446</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>454146</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>421</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>430230</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>867</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>884376</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2423,159 +2834,159 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>446</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>454146</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="H5" s="7">
-        <v>421</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>430230</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="M5" s="7">
-        <v>867</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>884376</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C7" s="7">
         <v>446</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D7" s="7">
         <v>454146</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
         <v>421</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I7" s="7">
         <v>430230</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="7">
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
         <v>867</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N7" s="7">
         <v>884376</v>
       </c>
-      <c r="O6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="O7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>667</v>
@@ -2584,13 +2995,13 @@
         <v>687087</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H8" s="7">
         <v>571</v>
@@ -2599,13 +3010,13 @@
         <v>610255</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>62</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M8" s="7">
         <v>1238</v>
@@ -2614,174 +3025,174 @@
         <v>1297342</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>667</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>687087</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="H9" s="7">
-        <v>571</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>610255</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="M9" s="7">
-        <v>1238</v>
+        <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>1297342</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>651</v>
+        <v>667</v>
       </c>
       <c r="D11" s="7">
-        <v>681863</v>
+        <v>687087</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>667</v>
+        <v>571</v>
       </c>
       <c r="I11" s="7">
-        <v>710850</v>
+        <v>610255</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>1318</v>
+        <v>1238</v>
       </c>
       <c r="N11" s="7">
-        <v>1392712</v>
+        <v>1297342</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="B12" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C12" s="7">
         <v>651</v>
@@ -2790,13 +3201,13 @@
         <v>681863</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
         <v>667</v>
@@ -2805,13 +3216,13 @@
         <v>710850</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>1318</v>
@@ -2820,37 +3231,35 @@
         <v>1392712</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
@@ -2858,13 +3267,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2873,64 +3282,64 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7">
-        <v>548</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>614617</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="H14" s="7">
-        <v>539</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>616199</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="M14" s="7">
-        <v>1087</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>1230816</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2939,102 +3348,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>548</v>
+        <v>651</v>
       </c>
       <c r="D15" s="7">
-        <v>614617</v>
+        <v>681863</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>539</v>
+        <v>667</v>
       </c>
       <c r="I15" s="7">
-        <v>616199</v>
+        <v>710850</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>1087</v>
+        <v>1318</v>
       </c>
       <c r="N15" s="7">
-        <v>1230816</v>
+        <v>1392712</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>548</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>614617</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>539</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>616199</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>1087</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>1230816</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,263 +3452,261 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>393</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>429429</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="H17" s="7">
-        <v>406</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>447800</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="M17" s="7">
-        <v>799</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>877229</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C19" s="7">
+        <v>548</v>
+      </c>
+      <c r="D19" s="7">
+        <v>614617</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7">
+        <v>539</v>
+      </c>
+      <c r="I19" s="7">
+        <v>616199</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="7">
+        <v>1087</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1230816</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
         <v>393</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D20" s="7">
         <v>429429</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
+      <c r="E20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="7">
         <v>406</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I20" s="7">
         <v>447800</v>
       </c>
-      <c r="J18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" s="7">
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M20" s="7">
         <v>799</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N20" s="7">
         <v>877229</v>
       </c>
-      <c r="O18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="O20" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>504</v>
-      </c>
-      <c r="D20" s="7">
-        <v>559637</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <v>694</v>
-      </c>
-      <c r="I20" s="7">
-        <v>742975</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1198</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1302612</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="P20" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>0</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>0</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="M21" s="7">
-        <v>1198</v>
+        <v>0</v>
       </c>
       <c r="N21" s="7">
-        <v>1302612</v>
+        <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -3308,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3323,13 +3730,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -3338,143 +3745,504 @@
         <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
+        <v>393</v>
+      </c>
+      <c r="D23" s="7">
+        <v>429429</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="7">
+        <v>406</v>
+      </c>
+      <c r="I23" s="7">
+        <v>447800</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23" s="7">
+        <v>799</v>
+      </c>
+      <c r="N23" s="7">
+        <v>877229</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7">
+        <v>504</v>
+      </c>
+      <c r="D24" s="7">
+        <v>559637</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="7">
+        <v>694</v>
+      </c>
+      <c r="I24" s="7">
+        <v>742975</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1198</v>
+      </c>
+      <c r="N24" s="7">
+        <v>1302612</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>504</v>
+      </c>
+      <c r="D27" s="7">
+        <v>559637</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="7">
+        <v>694</v>
+      </c>
+      <c r="I27" s="7">
+        <v>742975</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="7">
+        <v>1198</v>
+      </c>
+      <c r="N27" s="7">
+        <v>1302612</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
         <v>3209</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D28" s="7">
         <v>3426779</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="E28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="7">
+        <v>3298</v>
+      </c>
+      <c r="I28" s="7">
+        <v>3558309</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M28" s="7">
+        <v>6507</v>
+      </c>
+      <c r="N28" s="7">
+        <v>6985088</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="7">
+      <c r="Q28" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M30" s="7">
+        <v>0</v>
+      </c>
+      <c r="N30" s="7">
+        <v>0</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="7">
+        <v>3209</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3426779</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="7">
         <v>3298</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I31" s="7">
         <v>3558309</v>
       </c>
-      <c r="J23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M23" s="7">
+      <c r="J31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="7">
         <v>6507</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N31" s="7">
         <v>6985088</v>
       </c>
-      <c r="O23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D24" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
-        <v>3298</v>
-      </c>
-      <c r="I24" s="7">
-        <v>3558309</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
-        <v>6507</v>
-      </c>
-      <c r="N24" s="7">
-        <v>6985088</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>53</v>
+      <c r="O31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E49D0C9-3EEA-46F3-8F84-313A19CE7B64}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0501576B-0068-4088-ABA6-3EB7E0B4D454}">
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3490,7 +4258,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3591,49 +4359,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>393</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>419463</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>395755</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>797</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>815218</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3642,159 +4410,159 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>393</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>419463</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="H5" s="7">
-        <v>404</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>395755</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="M5" s="7">
-        <v>797</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>815218</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C7" s="7">
         <v>393</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D7" s="7">
         <v>419463</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
         <v>404</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I7" s="7">
         <v>395755</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="7">
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
         <v>797</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N7" s="7">
         <v>815218</v>
       </c>
-      <c r="O6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="O7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>567</v>
@@ -3803,13 +4571,13 @@
         <v>590496</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>62</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H8" s="7">
         <v>579</v>
@@ -3818,13 +4586,13 @@
         <v>563544</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M8" s="7">
         <v>1146</v>
@@ -3833,72 +4601,70 @@
         <v>1154040</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>590496</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="H9" s="7">
-        <v>579</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>563544</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>1154040</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -3907,100 +4673,102 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>638</v>
+        <v>567</v>
       </c>
       <c r="D11" s="7">
-        <v>669097</v>
+        <v>590496</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>665</v>
+        <v>579</v>
       </c>
       <c r="I11" s="7">
-        <v>661386</v>
+        <v>563544</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>1303</v>
+        <v>1146</v>
       </c>
       <c r="N11" s="7">
-        <v>1330483</v>
+        <v>1154040</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="B12" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C12" s="7">
         <v>638</v>
@@ -4009,13 +4777,13 @@
         <v>669097</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
         <v>665</v>
@@ -4024,13 +4792,13 @@
         <v>661386</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>1303</v>
@@ -4039,52 +4807,50 @@
         <v>1330483</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="M13" s="7">
         <v>0</v>
       </c>
@@ -4092,64 +4858,64 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7">
-        <v>582</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>646048</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>602</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>649077</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="M14" s="7">
-        <v>1184</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>1295125</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4158,102 +4924,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>582</v>
+        <v>638</v>
       </c>
       <c r="D15" s="7">
-        <v>646048</v>
+        <v>669097</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>602</v>
+        <v>665</v>
       </c>
       <c r="I15" s="7">
-        <v>649077</v>
+        <v>661386</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>1184</v>
+        <v>1303</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1330483</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>582</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>646048</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>602</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>649077</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>1184</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>1295125</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,263 +5028,261 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>424</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>477918</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="H17" s="7">
-        <v>433</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>496849</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M17" s="7">
-        <v>857</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>974767</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C19" s="7">
+        <v>582</v>
+      </c>
+      <c r="D19" s="7">
+        <v>646048</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7">
+        <v>602</v>
+      </c>
+      <c r="I19" s="7">
+        <v>649077</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="7">
+        <v>1184</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1295125</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
         <v>424</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D20" s="7">
         <v>477918</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
+      <c r="E20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="7">
         <v>433</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I20" s="7">
         <v>496849</v>
       </c>
-      <c r="J18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" s="7">
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M20" s="7">
         <v>857</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N20" s="7">
         <v>974767</v>
       </c>
-      <c r="O18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="O20" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>627</v>
-      </c>
-      <c r="D20" s="7">
-        <v>591328</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <v>655</v>
-      </c>
-      <c r="I20" s="7">
-        <v>777931</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1282</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1369259</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="P20" s="7" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>0</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>0</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>0</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -4527,13 +5291,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4542,13 +5306,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4557,143 +5321,504 @@
         <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
+        <v>424</v>
+      </c>
+      <c r="D23" s="7">
+        <v>477918</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="7">
+        <v>433</v>
+      </c>
+      <c r="I23" s="7">
+        <v>496849</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23" s="7">
+        <v>857</v>
+      </c>
+      <c r="N23" s="7">
+        <v>974767</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7">
+        <v>627</v>
+      </c>
+      <c r="D24" s="7">
+        <v>591328</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="7">
+        <v>655</v>
+      </c>
+      <c r="I24" s="7">
+        <v>777931</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1282</v>
+      </c>
+      <c r="N24" s="7">
+        <v>1369259</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>627</v>
+      </c>
+      <c r="D27" s="7">
+        <v>591328</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="7">
+        <v>655</v>
+      </c>
+      <c r="I27" s="7">
+        <v>777931</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="7">
+        <v>1282</v>
+      </c>
+      <c r="N27" s="7">
+        <v>1369259</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
         <v>3231</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D28" s="7">
         <v>3394350</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="E28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="7">
+        <v>3338</v>
+      </c>
+      <c r="I28" s="7">
+        <v>3544542</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M28" s="7">
+        <v>6569</v>
+      </c>
+      <c r="N28" s="7">
+        <v>6938892</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="7">
+      <c r="Q28" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M30" s="7">
+        <v>0</v>
+      </c>
+      <c r="N30" s="7">
+        <v>0</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="7">
+        <v>3231</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3394350</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="7">
         <v>3338</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I31" s="7">
         <v>3544542</v>
       </c>
-      <c r="J23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M23" s="7">
+      <c r="J31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="7">
         <v>6569</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N31" s="7">
         <v>6938892</v>
       </c>
-      <c r="O23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D24" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I24" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N24" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>53</v>
+      <c r="O31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0E155C-C6FF-4D61-AC5A-E30DB51D5FD0}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D715608-DB3F-41FC-8A23-A4DA71064FB6}">
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4709,7 +5834,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4810,49 +5935,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>8486</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H4" s="7">
-        <v>11</v>
-      </c>
-      <c r="I4" s="7">
-        <v>20677</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M4" s="7">
-        <v>15</v>
-      </c>
-      <c r="N4" s="7">
-        <v>29164</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,514 +5986,512 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>161</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>347330</v>
+        <v>8486</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="7">
+        <v>11</v>
+      </c>
+      <c r="I5" s="7">
+        <v>20677</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>15</v>
+      </c>
+      <c r="N5" s="7">
+        <v>29164</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H5" s="7">
-        <v>188</v>
-      </c>
-      <c r="I5" s="7">
-        <v>316571</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="M5" s="7">
-        <v>349</v>
-      </c>
-      <c r="N5" s="7">
-        <v>663900</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C6" s="7">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D6" s="7">
-        <v>355816</v>
+        <v>369193</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="H6" s="7">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I6" s="7">
-        <v>337248</v>
+        <v>334280</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="M6" s="7">
         <v>364</v>
       </c>
       <c r="N6" s="7">
-        <v>693064</v>
+        <v>703472</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7">
+        <v>172</v>
+      </c>
+      <c r="D7" s="7">
+        <v>377679</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>207</v>
+      </c>
+      <c r="I7" s="7">
+        <v>354957</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
+        <v>379</v>
+      </c>
+      <c r="N7" s="7">
+        <v>732636</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7">
-        <v>8</v>
-      </c>
-      <c r="D7" s="7">
-        <v>14151</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" s="7">
-        <v>8</v>
-      </c>
-      <c r="I7" s="7">
-        <v>8952</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="K7" s="7" t="s">
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="M7" s="7">
-        <v>16</v>
-      </c>
-      <c r="N7" s="7">
-        <v>23103</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="7">
-        <v>291</v>
-      </c>
-      <c r="D8" s="7">
-        <v>410143</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H8" s="7">
-        <v>447</v>
-      </c>
-      <c r="I8" s="7">
-        <v>485192</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="M8" s="7">
-        <v>738</v>
-      </c>
-      <c r="N8" s="7">
-        <v>895334</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>299</v>
+        <v>8</v>
       </c>
       <c r="D9" s="7">
-        <v>424294</v>
+        <v>14151</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="H9" s="7">
-        <v>455</v>
+        <v>8</v>
       </c>
       <c r="I9" s="7">
-        <v>494144</v>
+        <v>8952</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="M9" s="7">
-        <v>754</v>
+        <v>16</v>
       </c>
       <c r="N9" s="7">
-        <v>918437</v>
+        <v>23103</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7">
-        <v>17</v>
+        <v>294</v>
       </c>
       <c r="D10" s="7">
-        <v>16056</v>
+        <v>414245</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>453</v>
+      </c>
+      <c r="I10" s="7">
+        <v>490263</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="H10" s="7">
-        <v>24</v>
-      </c>
-      <c r="I10" s="7">
-        <v>17101</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>747</v>
+      </c>
+      <c r="N10" s="7">
+        <v>904508</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="M10" s="7">
-        <v>41</v>
-      </c>
-      <c r="N10" s="7">
-        <v>33156</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7">
+        <v>302</v>
+      </c>
+      <c r="D11" s="7">
+        <v>428396</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="7">
+        <v>461</v>
+      </c>
+      <c r="I11" s="7">
+        <v>499215</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="7">
+        <v>763</v>
+      </c>
+      <c r="N11" s="7">
+        <v>927611</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="7">
-        <v>524</v>
-      </c>
-      <c r="D11" s="7">
-        <v>538350</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="C13" s="7">
+        <v>17</v>
+      </c>
+      <c r="D13" s="7">
+        <v>16056</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="H11" s="7">
-        <v>819</v>
-      </c>
-      <c r="I11" s="7">
-        <v>589846</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="H13" s="7">
+        <v>24</v>
+      </c>
+      <c r="I13" s="7">
+        <v>17101</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1343</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1128197</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="Q11" s="7" t="s">
+      <c r="M13" s="7">
+        <v>41</v>
+      </c>
+      <c r="N13" s="7">
+        <v>33156</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="7">
-        <v>541</v>
-      </c>
-      <c r="D12" s="7">
-        <v>554406</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>843</v>
-      </c>
-      <c r="I12" s="7">
-        <v>606947</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="7">
-        <v>1384</v>
-      </c>
-      <c r="N12" s="7">
-        <v>1161353</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="7">
-        <v>15</v>
-      </c>
-      <c r="D13" s="7">
-        <v>15235</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="H13" s="7">
-        <v>19</v>
-      </c>
-      <c r="I13" s="7">
-        <v>12028</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="M13" s="7">
-        <v>34</v>
-      </c>
-      <c r="N13" s="7">
-        <v>27263</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7">
-        <v>645</v>
+        <v>529</v>
       </c>
       <c r="D14" s="7">
-        <v>702812</v>
+        <v>541196</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H14" s="7">
+        <v>824</v>
+      </c>
+      <c r="I14" s="7">
+        <v>593346</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1353</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1134543</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1115</v>
-      </c>
-      <c r="I14" s="7">
-        <v>730005</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1760</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1432817</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5377,102 +6500,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>660</v>
+        <v>546</v>
       </c>
       <c r="D15" s="7">
-        <v>718047</v>
+        <v>557252</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>1134</v>
+        <v>848</v>
       </c>
       <c r="I15" s="7">
-        <v>742033</v>
+        <v>610447</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>1794</v>
+        <v>1394</v>
       </c>
       <c r="N15" s="7">
-        <v>1460080</v>
+        <v>1167699</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>13425</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="H16" s="7">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>13958</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>153</v>
+        <v>17</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="M16" s="7">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>27384</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>156</v>
+        <v>17</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5481,430 +6604,789 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>641</v>
+        <v>15</v>
       </c>
       <c r="D17" s="7">
-        <v>581305</v>
+        <v>15235</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="H17" s="7">
-        <v>971</v>
+        <v>19</v>
       </c>
       <c r="I17" s="7">
-        <v>574812</v>
+        <v>12028</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>162</v>
+        <v>85</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="M17" s="7">
-        <v>1612</v>
+        <v>34</v>
       </c>
       <c r="N17" s="7">
-        <v>1156116</v>
+        <v>27263</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7">
+        <v>650</v>
+      </c>
+      <c r="D18" s="7">
+        <v>708755</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1122</v>
+      </c>
+      <c r="I18" s="7">
+        <v>735233</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="M18" s="7">
+        <v>1772</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1443989</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="7">
-        <v>657</v>
-      </c>
-      <c r="D18" s="7">
-        <v>594730</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>993</v>
-      </c>
-      <c r="I18" s="7">
-        <v>588770</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1650</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1183500</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="C19" s="7">
+        <v>665</v>
+      </c>
+      <c r="D19" s="7">
+        <v>723990</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1141</v>
+      </c>
+      <c r="I19" s="7">
+        <v>747261</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="7">
+        <v>1806</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1471252</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="7">
-        <v>8</v>
-      </c>
-      <c r="D19" s="7">
-        <v>5814</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H19" s="7">
-        <v>12</v>
-      </c>
-      <c r="I19" s="7">
-        <v>5891</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="M19" s="7">
-        <v>20</v>
-      </c>
-      <c r="N19" s="7">
-        <v>11705</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="C20" s="7">
-        <v>1014</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>687339</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H20" s="7">
-        <v>1683</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>1013153</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>175</v>
+        <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="M20" s="7">
-        <v>2697</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>1700492</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>177</v>
+        <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>178</v>
+        <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>36</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>1022</v>
+        <v>16</v>
       </c>
       <c r="D21" s="7">
-        <v>693153</v>
+        <v>13425</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="H21" s="7">
-        <v>1695</v>
+        <v>22</v>
       </c>
       <c r="I21" s="7">
-        <v>1019044</v>
+        <v>13958</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="M21" s="7">
-        <v>2717</v>
+        <v>38</v>
       </c>
       <c r="N21" s="7">
-        <v>1712197</v>
+        <v>27384</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>19</v>
+        <v>172</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>19</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C22" s="7">
-        <v>68</v>
+        <v>647</v>
       </c>
       <c r="D22" s="7">
-        <v>73167</v>
+        <v>586732</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H22" s="7">
+        <v>980</v>
+      </c>
+      <c r="I22" s="7">
+        <v>583105</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>1627</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1169836</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="H22" s="7">
-        <v>96</v>
-      </c>
-      <c r="I22" s="7">
-        <v>78608</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="M22" s="7">
-        <v>164</v>
-      </c>
-      <c r="N22" s="7">
-        <v>151775</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
+        <v>663</v>
+      </c>
+      <c r="D23" s="7">
+        <v>600157</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1002</v>
+      </c>
+      <c r="I23" s="7">
+        <v>597063</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23" s="7">
+        <v>1665</v>
+      </c>
+      <c r="N23" s="7">
+        <v>1197220</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="7">
-        <v>3276</v>
-      </c>
-      <c r="D23" s="7">
-        <v>3267279</v>
-      </c>
-      <c r="E23" s="7" t="s">
+      <c r="C25" s="7">
+        <v>8</v>
+      </c>
+      <c r="D25" s="7">
+        <v>5814</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="7">
+        <v>12</v>
+      </c>
+      <c r="I25" s="7">
+        <v>5891</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="M25" s="7">
+        <v>20</v>
+      </c>
+      <c r="N25" s="7">
+        <v>11705</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="G23" s="7" t="s">
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1020</v>
+      </c>
+      <c r="D26" s="7">
+        <v>691940</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="H23" s="7">
-        <v>5223</v>
-      </c>
-      <c r="I23" s="7">
-        <v>3709578</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="F26" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1696</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1020746</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="L23" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="M23" s="7">
-        <v>8499</v>
-      </c>
-      <c r="N23" s="7">
-        <v>6976857</v>
-      </c>
-      <c r="O23" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="M26" s="7">
+        <v>2716</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1712687</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="Q23" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="5" t="s">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="7">
-        <v>3344</v>
-      </c>
-      <c r="D24" s="7">
-        <v>3340446</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
-        <v>5319</v>
-      </c>
-      <c r="I24" s="7">
-        <v>3788186</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
-        <v>8663</v>
-      </c>
-      <c r="N24" s="7">
-        <v>7128632</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>53</v>
+      <c r="C27" s="7">
+        <v>1028</v>
+      </c>
+      <c r="D27" s="7">
+        <v>697754</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1708</v>
+      </c>
+      <c r="I27" s="7">
+        <v>1026637</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="7">
+        <v>2736</v>
+      </c>
+      <c r="N27" s="7">
+        <v>1724392</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="7">
+        <v>68</v>
+      </c>
+      <c r="D29" s="7">
+        <v>73167</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H29" s="7">
+        <v>96</v>
+      </c>
+      <c r="I29" s="7">
+        <v>78608</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="M29" s="7">
+        <v>164</v>
+      </c>
+      <c r="N29" s="7">
+        <v>151775</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="7">
+        <v>3308</v>
+      </c>
+      <c r="D30" s="7">
+        <v>3312061</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H30" s="7">
+        <v>5271</v>
+      </c>
+      <c r="I30" s="7">
+        <v>3756973</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="M30" s="7">
+        <v>8579</v>
+      </c>
+      <c r="N30" s="7">
+        <v>7069034</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="7">
+        <v>3376</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3385228</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="7">
+        <v>5367</v>
+      </c>
+      <c r="I31" s="7">
+        <v>3835581</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="7">
+        <v>8743</v>
+      </c>
+      <c r="N31" s="7">
+        <v>7220809</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_orig/P78C_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P78C_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2AC9BAF-238B-41A0-AEB9-A6D57592B213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B66EC40D-A0CD-4DAC-977A-E1B554F8FA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D3D31659-F46C-4F73-861A-985DC6082901}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FB78B116-CE8C-408E-B4A9-FA165A23BEA5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="226">
   <si>
     <t>Población con retrasos en pagos no resueltos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>No recogida en edición</t>
@@ -110,7 +110,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>99,73%</t>
@@ -131,7 +131,7 @@
     <t>0,15%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>99,69%</t>
@@ -146,7 +146,7 @@
     <t>0,29%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>99,6%</t>
@@ -155,7 +155,7 @@
     <t>0,4%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>99,51%</t>
@@ -176,120 +176,183 @@
     <t>0,24%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>99,63%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con retrasos en pagos no resueltos en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>Población con retrasos en pagos no resueltos en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
   </si>
   <si>
     <t>99,84%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con retrasos en pagos no resueltos en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>Población con retrasos en pagos no resueltos en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
     <t>99,56%</t>
   </si>
   <si>
     <t>0,44%</t>
   </si>
   <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
     <t>Población con retrasos en pagos no resueltos en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
@@ -302,61 +365,52 @@
     <t>0,51%</t>
   </si>
   <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
   </si>
   <si>
     <t>0,42%</t>
@@ -365,58 +419,58 @@
     <t>0,25%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
   </si>
   <si>
     <t>0,23%</t>
@@ -425,205 +479,196 @@
     <t>0,14%</t>
   </si>
   <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
   </si>
   <si>
     <t>2,84%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
   </si>
   <si>
     <t>97,16%</t>
   </si>
   <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
   </si>
   <si>
     <t>99,08%</t>
   </si>
   <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
     <t>0,12%</t>
   </si>
   <si>
-    <t>2,24%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
   </si>
   <si>
     <t>1,22%</t>
   </si>
   <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
   </si>
   <si>
     <t>98,78%</t>
   </si>
   <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
   </si>
   <si>
     <t>0,04%</t>
@@ -632,52 +677,46 @@
     <t>0,02%</t>
   </si>
   <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
   </si>
 </sst>
 </file>
@@ -1089,8 +1128,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EDA1BB0-C5D7-4749-9F9A-1EAF9057EC15}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83851EB-7A32-4785-BDEA-7B50CF7D422C}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2237,10 +2276,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D24" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>11</v>
@@ -2252,31 +2291,31 @@
         <v>13</v>
       </c>
       <c r="H24" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I24" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M24" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N24" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>13</v>
@@ -2300,7 +2339,7 @@
         <v>18</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2315,7 +2354,7 @@
         <v>18</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -2330,7 +2369,7 @@
         <v>18</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2351,7 +2390,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2366,7 +2405,7 @@
         <v>18</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -2381,7 +2420,7 @@
         <v>18</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2390,10 +2429,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D27" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>13</v>
@@ -2405,10 +2444,10 @@
         <v>13</v>
       </c>
       <c r="H27" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I27" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>13</v>
@@ -2420,10 +2459,10 @@
         <v>13</v>
       </c>
       <c r="M27" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N27" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>13</v>
@@ -2437,52 +2476,52 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>3214</v>
+        <v>220</v>
       </c>
       <c r="D28" s="7">
-        <v>3276544</v>
+        <v>209883</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H28" s="7">
-        <v>3297</v>
+        <v>290</v>
       </c>
       <c r="I28" s="7">
-        <v>3379198</v>
+        <v>333908</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M28" s="7">
-        <v>6511</v>
+        <v>510</v>
       </c>
       <c r="N28" s="7">
-        <v>6655740</v>
+        <v>543791</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>13</v>
@@ -2506,7 +2545,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2521,7 +2560,7 @@
         <v>18</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -2536,7 +2575,7 @@
         <v>18</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2557,7 +2596,7 @@
         <v>18</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2572,7 +2611,7 @@
         <v>18</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2587,7 +2626,7 @@
         <v>18</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2596,63 +2635,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>220</v>
+      </c>
+      <c r="D31" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="7">
+        <v>290</v>
+      </c>
+      <c r="I31" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="7">
+        <v>510</v>
+      </c>
+      <c r="N31" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
         <v>3214</v>
       </c>
-      <c r="D31" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D32" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="7">
         <v>3297</v>
       </c>
-      <c r="I31" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I32" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M32" s="7">
         <v>6511</v>
       </c>
-      <c r="N31" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>54</v>
+      <c r="N32" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="7">
+        <v>0</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
+        <v>3214</v>
+      </c>
+      <c r="D35" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="7">
+        <v>3297</v>
+      </c>
+      <c r="I35" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35" s="7">
+        <v>6511</v>
+      </c>
+      <c r="N35" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2665,8 +2911,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FFE4BC-E11D-4043-BDC5-3F317BDD29A1}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322EF8C7-CF5F-47A9-B19D-5AEF71F904C0}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2682,7 +2928,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2792,7 +3038,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -2807,7 +3053,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -2822,7 +3068,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2846,7 +3092,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2861,7 +3107,7 @@
         <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2876,7 +3122,7 @@
         <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,7 +3143,7 @@
         <v>18</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -2912,7 +3158,7 @@
         <v>18</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -2927,7 +3173,7 @@
         <v>18</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3013,7 +3259,7 @@
         <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
@@ -3067,7 +3313,7 @@
         <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -3118,7 +3364,7 @@
         <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3410,7 +3656,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -3425,7 +3671,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -3440,7 +3686,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3464,7 +3710,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3479,7 +3725,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3494,7 +3740,7 @@
         <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3515,7 +3761,7 @@
         <v>18</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -3530,7 +3776,7 @@
         <v>18</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -3545,7 +3791,7 @@
         <v>18</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,7 +3877,7 @@
         <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>13</v>
@@ -3685,7 +3931,7 @@
         <v>18</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -3736,7 +3982,7 @@
         <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -3813,46 +4059,46 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D24" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H24" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I24" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M24" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N24" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>13</v>
@@ -3876,7 +4122,7 @@
         <v>18</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -3891,7 +4137,7 @@
         <v>18</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -3906,7 +4152,7 @@
         <v>18</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3927,7 +4173,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3942,7 +4188,7 @@
         <v>18</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -3957,7 +4203,7 @@
         <v>18</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,10 +4212,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D27" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>13</v>
@@ -3981,10 +4227,10 @@
         <v>13</v>
       </c>
       <c r="H27" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I27" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>13</v>
@@ -3996,10 +4242,10 @@
         <v>13</v>
       </c>
       <c r="M27" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N27" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>13</v>
@@ -4013,52 +4259,52 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>3209</v>
+        <v>222</v>
       </c>
       <c r="D28" s="7">
-        <v>3426779</v>
+        <v>249851</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H28" s="7">
-        <v>3298</v>
+        <v>350</v>
       </c>
       <c r="I28" s="7">
-        <v>3558309</v>
+        <v>388979</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M28" s="7">
-        <v>6507</v>
+        <v>572</v>
       </c>
       <c r="N28" s="7">
-        <v>6985088</v>
+        <v>638830</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>13</v>
@@ -4082,7 +4328,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -4097,7 +4343,7 @@
         <v>18</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -4112,7 +4358,7 @@
         <v>18</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,7 +4379,7 @@
         <v>18</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -4148,7 +4394,7 @@
         <v>18</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -4163,7 +4409,7 @@
         <v>18</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4172,63 +4418,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>222</v>
+      </c>
+      <c r="D31" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="7">
+        <v>350</v>
+      </c>
+      <c r="I31" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="7">
+        <v>572</v>
+      </c>
+      <c r="N31" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
         <v>3209</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D32" s="7">
         <v>3426779</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="7">
         <v>3298</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I32" s="7">
         <v>3558309</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M32" s="7">
         <v>6507</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N32" s="7">
         <v>6985088</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>54</v>
+      <c r="O32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="7">
+        <v>0</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
+        <v>3209</v>
+      </c>
+      <c r="D35" s="7">
+        <v>3426779</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="7">
+        <v>3298</v>
+      </c>
+      <c r="I35" s="7">
+        <v>3558309</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35" s="7">
+        <v>6507</v>
+      </c>
+      <c r="N35" s="7">
+        <v>6985088</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4241,8 +4694,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0501576B-0068-4088-ABA6-3EB7E0B4D454}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88AB5D65-D40D-478F-93DC-F59D3B3553E4}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4258,7 +4711,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4383,7 +4836,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -4437,7 +4890,7 @@
         <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4488,7 +4941,7 @@
         <v>18</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4574,7 +5027,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>13</v>
@@ -4589,7 +5042,7 @@
         <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
@@ -4604,7 +5057,7 @@
         <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>13</v>
@@ -4628,7 +5081,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4643,7 +5096,7 @@
         <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4658,7 +5111,7 @@
         <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4679,7 +5132,7 @@
         <v>18</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4694,7 +5147,7 @@
         <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4709,7 +5162,7 @@
         <v>18</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4780,7 +5233,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>13</v>
@@ -4834,7 +5287,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4885,7 +5338,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4986,7 +5439,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -5016,7 +5469,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -5040,7 +5493,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -5070,7 +5523,7 @@
         <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5091,7 +5544,7 @@
         <v>18</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -5121,7 +5574,7 @@
         <v>18</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5192,7 +5645,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>13</v>
@@ -5207,7 +5660,7 @@
         <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>13</v>
@@ -5222,7 +5675,7 @@
         <v>11</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>13</v>
@@ -5246,7 +5699,7 @@
         <v>18</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -5261,7 +5714,7 @@
         <v>18</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -5276,7 +5729,7 @@
         <v>18</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5297,7 +5750,7 @@
         <v>18</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5312,7 +5765,7 @@
         <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5327,7 +5780,7 @@
         <v>18</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5389,46 +5842,46 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D24" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H24" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I24" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M24" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N24" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>13</v>
@@ -5452,7 +5905,7 @@
         <v>18</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5467,7 +5920,7 @@
         <v>18</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5482,7 +5935,7 @@
         <v>18</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5503,7 +5956,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5518,7 +5971,7 @@
         <v>18</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5533,7 +5986,7 @@
         <v>18</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5542,10 +5995,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D27" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>13</v>
@@ -5557,10 +6010,10 @@
         <v>13</v>
       </c>
       <c r="H27" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I27" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>13</v>
@@ -5572,10 +6025,10 @@
         <v>13</v>
       </c>
       <c r="M27" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N27" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>13</v>
@@ -5589,52 +6042,52 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>3231</v>
+        <v>302</v>
       </c>
       <c r="D28" s="7">
-        <v>3394350</v>
+        <v>256998</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H28" s="7">
-        <v>3338</v>
+        <v>301</v>
       </c>
       <c r="I28" s="7">
-        <v>3544542</v>
+        <v>400169</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M28" s="7">
-        <v>6569</v>
+        <v>603</v>
       </c>
       <c r="N28" s="7">
-        <v>6938892</v>
+        <v>657167</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>13</v>
@@ -5658,7 +6111,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5673,7 +6126,7 @@
         <v>18</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -5688,7 +6141,7 @@
         <v>18</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,7 +6162,7 @@
         <v>18</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5724,7 +6177,7 @@
         <v>18</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -5739,7 +6192,7 @@
         <v>18</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5748,63 +6201,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>302</v>
+      </c>
+      <c r="D31" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="7">
+        <v>301</v>
+      </c>
+      <c r="I31" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="7">
+        <v>603</v>
+      </c>
+      <c r="N31" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
         <v>3231</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D32" s="7">
         <v>3394350</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="7">
         <v>3338</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I32" s="7">
         <v>3544542</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M32" s="7">
         <v>6569</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N32" s="7">
         <v>6938892</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>54</v>
+      <c r="O32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="7">
+        <v>0</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
+        <v>3231</v>
+      </c>
+      <c r="D35" s="7">
+        <v>3394350</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="7">
+        <v>3338</v>
+      </c>
+      <c r="I35" s="7">
+        <v>3544542</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35" s="7">
+        <v>6569</v>
+      </c>
+      <c r="N35" s="7">
+        <v>6938892</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5817,8 +6477,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D715608-DB3F-41FC-8A23-A4DA71064FB6}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{631BF05B-DE15-41A0-96C6-0FDC178DCA95}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5834,7 +6494,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5947,7 +6607,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5962,7 +6622,7 @@
         <v>18</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5977,7 +6637,7 @@
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5989,46 +6649,46 @@
         <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>8486</v>
+        <v>9118</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
       </c>
       <c r="I5" s="7">
-        <v>20677</v>
+        <v>21111</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
       </c>
       <c r="N5" s="7">
-        <v>29164</v>
+        <v>30229</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6040,46 +6700,46 @@
         <v>168</v>
       </c>
       <c r="D6" s="7">
-        <v>369193</v>
+        <v>390869</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="H6" s="7">
         <v>196</v>
       </c>
       <c r="I6" s="7">
-        <v>334280</v>
+        <v>292089</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="M6" s="7">
         <v>364</v>
       </c>
       <c r="N6" s="7">
-        <v>703472</v>
+        <v>682958</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6091,7 +6751,7 @@
         <v>172</v>
       </c>
       <c r="D7" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -6106,7 +6766,7 @@
         <v>207</v>
       </c>
       <c r="I7" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -6121,7 +6781,7 @@
         <v>379</v>
       </c>
       <c r="N7" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -6153,7 +6813,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6168,7 +6828,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6183,7 +6843,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6195,46 +6855,46 @@
         <v>8</v>
       </c>
       <c r="D9" s="7">
-        <v>14151</v>
+        <v>14350</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="H9" s="7">
         <v>8</v>
       </c>
       <c r="I9" s="7">
-        <v>8952</v>
+        <v>7937</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="M9" s="7">
         <v>16</v>
       </c>
       <c r="N9" s="7">
-        <v>23103</v>
+        <v>22287</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6246,46 +6906,46 @@
         <v>294</v>
       </c>
       <c r="D10" s="7">
-        <v>414245</v>
+        <v>409197</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="H10" s="7">
         <v>453</v>
       </c>
       <c r="I10" s="7">
-        <v>490263</v>
+        <v>504156</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="M10" s="7">
         <v>747</v>
       </c>
       <c r="N10" s="7">
-        <v>904508</v>
+        <v>913353</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6297,7 +6957,7 @@
         <v>302</v>
       </c>
       <c r="D11" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -6312,7 +6972,7 @@
         <v>461</v>
       </c>
       <c r="I11" s="7">
-        <v>499215</v>
+        <v>512093</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -6327,7 +6987,7 @@
         <v>763</v>
       </c>
       <c r="N11" s="7">
-        <v>927611</v>
+        <v>935640</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -6359,7 +7019,7 @@
         <v>18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -6374,7 +7034,7 @@
         <v>18</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6389,7 +7049,7 @@
         <v>18</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6401,46 +7061,46 @@
         <v>17</v>
       </c>
       <c r="D13" s="7">
-        <v>16056</v>
+        <v>15105</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
       </c>
       <c r="I13" s="7">
-        <v>17101</v>
+        <v>16004</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="M13" s="7">
         <v>41</v>
       </c>
       <c r="N13" s="7">
-        <v>33156</v>
+        <v>31110</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6452,46 +7112,46 @@
         <v>529</v>
       </c>
       <c r="D14" s="7">
-        <v>541196</v>
+        <v>521233</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="H14" s="7">
         <v>824</v>
       </c>
       <c r="I14" s="7">
-        <v>593346</v>
+        <v>575998</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="M14" s="7">
         <v>1353</v>
       </c>
       <c r="N14" s="7">
-        <v>1134543</v>
+        <v>1097230</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6503,7 +7163,7 @@
         <v>546</v>
       </c>
       <c r="D15" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -6518,7 +7178,7 @@
         <v>848</v>
       </c>
       <c r="I15" s="7">
-        <v>610447</v>
+        <v>592002</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -6533,7 +7193,7 @@
         <v>1394</v>
       </c>
       <c r="N15" s="7">
-        <v>1167699</v>
+        <v>1128340</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -6580,7 +7240,7 @@
         <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6595,7 +7255,7 @@
         <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6607,46 +7267,46 @@
         <v>15</v>
       </c>
       <c r="D17" s="7">
-        <v>15235</v>
+        <v>14311</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
       </c>
       <c r="I17" s="7">
-        <v>12028</v>
+        <v>11259</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>85</v>
+        <v>168</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="M17" s="7">
         <v>34</v>
       </c>
       <c r="N17" s="7">
-        <v>27263</v>
+        <v>25570</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6658,46 +7318,46 @@
         <v>650</v>
       </c>
       <c r="D18" s="7">
-        <v>708755</v>
+        <v>873475</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c r="H18" s="7">
         <v>1122</v>
       </c>
       <c r="I18" s="7">
-        <v>735233</v>
+        <v>701622</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="M18" s="7">
         <v>1772</v>
       </c>
       <c r="N18" s="7">
-        <v>1443989</v>
+        <v>1575097</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6709,7 +7369,7 @@
         <v>665</v>
       </c>
       <c r="D19" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -6724,7 +7384,7 @@
         <v>1141</v>
       </c>
       <c r="I19" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -6739,7 +7399,7 @@
         <v>1806</v>
       </c>
       <c r="N19" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -6801,7 +7461,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6813,46 +7473,46 @@
         <v>16</v>
       </c>
       <c r="D21" s="7">
-        <v>13425</v>
+        <v>12849</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="H21" s="7">
         <v>22</v>
       </c>
       <c r="I21" s="7">
-        <v>13958</v>
+        <v>12591</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="M21" s="7">
         <v>38</v>
       </c>
       <c r="N21" s="7">
-        <v>27384</v>
+        <v>25439</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6864,46 +7524,46 @@
         <v>647</v>
       </c>
       <c r="D22" s="7">
-        <v>586732</v>
+        <v>548385</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="H22" s="7">
         <v>980</v>
       </c>
       <c r="I22" s="7">
-        <v>583105</v>
+        <v>535314</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="M22" s="7">
         <v>1627</v>
       </c>
       <c r="N22" s="7">
-        <v>1169836</v>
+        <v>1083700</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6915,7 +7575,7 @@
         <v>663</v>
       </c>
       <c r="D23" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -6930,7 +7590,7 @@
         <v>1002</v>
       </c>
       <c r="I23" s="7">
-        <v>597063</v>
+        <v>547905</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>13</v>
@@ -6945,7 +7605,7 @@
         <v>1665</v>
       </c>
       <c r="N23" s="7">
-        <v>1197220</v>
+        <v>1109139</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -6977,7 +7637,7 @@
         <v>18</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6992,7 +7652,7 @@
         <v>18</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7007,7 +7667,7 @@
         <v>18</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7016,49 +7676,49 @@
         <v>16</v>
       </c>
       <c r="C25" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D25" s="7">
-        <v>5814</v>
+        <v>4479</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>109</v>
+        <v>194</v>
       </c>
       <c r="H25" s="7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I25" s="7">
-        <v>5891</v>
+        <v>3439</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="M25" s="7">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N25" s="7">
-        <v>11705</v>
+        <v>7918</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>112</v>
+        <v>195</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7067,49 +7727,49 @@
         <v>22</v>
       </c>
       <c r="C26" s="7">
-        <v>1020</v>
+        <v>563</v>
       </c>
       <c r="D26" s="7">
-        <v>691940</v>
+        <v>363686</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>119</v>
+        <v>198</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="H26" s="7">
-        <v>1696</v>
+        <v>820</v>
       </c>
       <c r="I26" s="7">
-        <v>1020746</v>
+        <v>604929</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>191</v>
+        <v>143</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="M26" s="7">
-        <v>2716</v>
+        <v>1383</v>
       </c>
       <c r="N26" s="7">
-        <v>1712687</v>
+        <v>968615</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>122</v>
+        <v>200</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>194</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7118,10 +7778,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D27" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>13</v>
@@ -7133,10 +7793,10 @@
         <v>13</v>
       </c>
       <c r="H27" s="7">
-        <v>1708</v>
+        <v>827</v>
       </c>
       <c r="I27" s="7">
-        <v>1026637</v>
+        <v>608368</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>13</v>
@@ -7148,10 +7808,10 @@
         <v>13</v>
       </c>
       <c r="M27" s="7">
-        <v>2736</v>
+        <v>1397</v>
       </c>
       <c r="N27" s="7">
-        <v>1724392</v>
+        <v>976533</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>13</v>
@@ -7165,7 +7825,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7183,7 +7843,7 @@
         <v>18</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7198,7 +7858,7 @@
         <v>18</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>195</v>
+        <v>68</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -7213,7 +7873,7 @@
         <v>18</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7222,49 +7882,49 @@
         <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>73167</v>
+        <v>941</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>197</v>
+        <v>90</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>198</v>
+        <v>17</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H29" s="7">
-        <v>96</v>
+        <v>5</v>
       </c>
       <c r="I29" s="7">
-        <v>78608</v>
+        <v>1859</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>200</v>
+        <v>97</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>201</v>
+        <v>95</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M29" s="7">
-        <v>164</v>
+        <v>6</v>
       </c>
       <c r="N29" s="7">
-        <v>151775</v>
+        <v>2801</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>147</v>
+        <v>37</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7273,49 +7933,49 @@
         <v>22</v>
       </c>
       <c r="C30" s="7">
-        <v>3308</v>
+        <v>457</v>
       </c>
       <c r="D30" s="7">
-        <v>3312061</v>
+        <v>281818</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>205</v>
+        <v>88</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>206</v>
       </c>
       <c r="G30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="7">
+        <v>876</v>
+      </c>
+      <c r="I30" s="7">
+        <v>423972</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="H30" s="7">
-        <v>5271</v>
-      </c>
-      <c r="I30" s="7">
-        <v>3756973</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="L30" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M30" s="7">
+        <v>1333</v>
+      </c>
+      <c r="N30" s="7">
+        <v>705789</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="M30" s="7">
-        <v>8579</v>
-      </c>
-      <c r="N30" s="7">
-        <v>7069034</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7324,63 +7984,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>458</v>
+      </c>
+      <c r="D31" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="7">
+        <v>881</v>
+      </c>
+      <c r="I31" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N31" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="7">
+        <v>68</v>
+      </c>
+      <c r="D33" s="7">
+        <v>71153</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H33" s="7">
+        <v>96</v>
+      </c>
+      <c r="I33" s="7">
+        <v>74199</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="M33" s="7">
+        <v>164</v>
+      </c>
+      <c r="N33" s="7">
+        <v>145352</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="7">
+        <v>3308</v>
+      </c>
+      <c r="D34" s="7">
+        <v>3388664</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H34" s="7">
+        <v>5271</v>
+      </c>
+      <c r="I34" s="7">
+        <v>3638081</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="M34" s="7">
+        <v>8579</v>
+      </c>
+      <c r="N34" s="7">
+        <v>7026745</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3376</v>
       </c>
-      <c r="D31" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>3459817</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="7">
         <v>5367</v>
       </c>
-      <c r="I31" s="7">
-        <v>3835581</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>3712280</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35" s="7">
         <v>8743</v>
       </c>
-      <c r="N31" s="7">
-        <v>7220809</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>54</v>
+      <c r="N35" s="7">
+        <v>7172097</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
